--- a/data/trans_orig/P22_R4-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P22_R4-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>111207</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93150</v>
+        <v>92967</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129510</v>
+        <v>130349</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2354722649664626</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1972381925073391</v>
+        <v>0.1968501748911825</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2742262758002462</v>
+        <v>0.2760034349601442</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -765,19 +765,19 @@
         <v>71128</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56708</v>
+        <v>56193</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>87625</v>
+        <v>86906</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2319285995072555</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1849106295857667</v>
+        <v>0.1832306850049748</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2857220545048642</v>
+        <v>0.2833762694670632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>179</v>
@@ -786,19 +786,19 @@
         <v>182335</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>159501</v>
+        <v>159916</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>208491</v>
+        <v>208825</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2340770940721537</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2047631687495914</v>
+        <v>0.2052964219424317</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2676556227352146</v>
+        <v>0.2680848390893547</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>361066</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>342763</v>
+        <v>341924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>379123</v>
+        <v>379306</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7645277350335373</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7257737241997537</v>
+        <v>0.7239965650398559</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8027618074926608</v>
+        <v>0.8031498251088175</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>230</v>
@@ -836,19 +836,19 @@
         <v>235552</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>219055</v>
+        <v>219774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>249972</v>
+        <v>250487</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7680714004927446</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7142779454951357</v>
+        <v>0.716623730532937</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8150893704142333</v>
+        <v>0.8167693149950254</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>573</v>
@@ -857,19 +857,19 @@
         <v>596618</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>570462</v>
+        <v>570128</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>619452</v>
+        <v>619037</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7659229059278463</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7323443772647852</v>
+        <v>0.7319151609106452</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7952368312504087</v>
+        <v>0.7947035780575681</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>82855</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67237</v>
+        <v>68642</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101025</v>
+        <v>100583</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2258044098117983</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1832401152753951</v>
+        <v>0.1870690106779103</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2753226701093343</v>
+        <v>0.2741175842427137</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -982,19 +982,19 @@
         <v>55136</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42685</v>
+        <v>42697</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69758</v>
+        <v>69056</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1482689579594568</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1147861098185587</v>
+        <v>0.1148180850371872</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1875905689159306</v>
+        <v>0.1857030809850336</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>127</v>
@@ -1003,19 +1003,19 @@
         <v>137991</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117289</v>
+        <v>116660</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>160080</v>
+        <v>162463</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1867779490743966</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1587562575020122</v>
+        <v>0.1579043378423359</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2166759573775635</v>
+        <v>0.2199018675075853</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>284079</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>265909</v>
+        <v>266351</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>299697</v>
+        <v>298292</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7741955901882016</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7246773298906658</v>
+        <v>0.7258824157572863</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8167598847246049</v>
+        <v>0.8129309893220897</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>310</v>
@@ -1053,19 +1053,19 @@
         <v>316729</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>302107</v>
+        <v>302809</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>329180</v>
+        <v>329168</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8517310420405432</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8124094310840694</v>
+        <v>0.8142969190149663</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8852138901814414</v>
+        <v>0.8851819149628128</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>586</v>
@@ -1074,19 +1074,19 @@
         <v>600808</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>578719</v>
+        <v>576336</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>621510</v>
+        <v>622139</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8132220509256034</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7833240426224365</v>
+        <v>0.7800981324924149</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8412437424979879</v>
+        <v>0.8420956621576647</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>38604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28855</v>
+        <v>27840</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53147</v>
+        <v>52010</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07128130447776498</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05328079877947598</v>
+        <v>0.05140667205566725</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09813560272426911</v>
+        <v>0.09603532426940653</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1199,19 +1199,19 @@
         <v>9483</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4338</v>
+        <v>4638</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17606</v>
+        <v>16928</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05651928694260875</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02585216644550433</v>
+        <v>0.0276433903204909</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1049320479093256</v>
+        <v>0.1008903685453482</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -1220,19 +1220,19 @@
         <v>48087</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35621</v>
+        <v>35124</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63829</v>
+        <v>63118</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06778966923897328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05021649235683284</v>
+        <v>0.04951509205336796</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08998162473694621</v>
+        <v>0.08897977499599907</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>502967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>488424</v>
+        <v>489561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>512716</v>
+        <v>513731</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9287186955222351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9018643972757312</v>
+        <v>0.9039646757305935</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.946719201220524</v>
+        <v>0.9485933279443327</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>155</v>
@@ -1270,19 +1270,19 @@
         <v>158299</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150176</v>
+        <v>150854</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>163444</v>
+        <v>163144</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9434807130573912</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8950679520906745</v>
+        <v>0.8991096314546517</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9741478335544957</v>
+        <v>0.9723566096795092</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>649</v>
@@ -1291,19 +1291,19 @@
         <v>661266</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>645524</v>
+        <v>646235</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>673732</v>
+        <v>674229</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9322103307610268</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9100183752630537</v>
+        <v>0.9110202250040008</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9497835076431671</v>
+        <v>0.950484907946632</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>66639</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51833</v>
+        <v>52424</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82946</v>
+        <v>84305</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05395094901524727</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04196398541685192</v>
+        <v>0.04244247594468926</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06715340794651101</v>
+        <v>0.06825351229227468</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1416,19 +1416,19 @@
         <v>48284</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36655</v>
+        <v>35795</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63350</v>
+        <v>63095</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0675981628108555</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05131641890256167</v>
+        <v>0.05011291947102732</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08869057412298761</v>
+        <v>0.08833257603887909</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -1437,19 +1437,19 @@
         <v>114923</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95475</v>
+        <v>94877</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137034</v>
+        <v>137323</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05895130782967104</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04897523985833519</v>
+        <v>0.04866848929866781</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07029340026617181</v>
+        <v>0.07044166784135097</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1168537</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1152230</v>
+        <v>1150871</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1183343</v>
+        <v>1182752</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9460490509847528</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9328465920534889</v>
+        <v>0.9317464877077254</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9580360145831481</v>
+        <v>0.9575575240553106</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>647</v>
@@ -1487,19 +1487,19 @@
         <v>666001</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>650935</v>
+        <v>651190</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>677630</v>
+        <v>678490</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9324018371891445</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9113094258770132</v>
+        <v>0.9116674239611205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9486835810974387</v>
+        <v>0.9498870805289725</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1801</v>
@@ -1508,19 +1508,19 @@
         <v>1834538</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1812427</v>
+        <v>1812138</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1853986</v>
+        <v>1854584</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9410486921703289</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9297065997338282</v>
+        <v>0.929558332158649</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9510247601416648</v>
+        <v>0.951331510701332</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>26263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17616</v>
+        <v>17202</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37549</v>
+        <v>38370</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07491734294541369</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05025086565516003</v>
+        <v>0.04907126905690619</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1071140736260001</v>
+        <v>0.1094554016382044</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -1633,19 +1633,19 @@
         <v>35136</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23911</v>
+        <v>23834</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47797</v>
+        <v>48543</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06177805081708597</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04204165476198252</v>
+        <v>0.04190524203459257</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08403800667772673</v>
+        <v>0.08534967250406277</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -1654,19 +1654,19 @@
         <v>61399</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46367</v>
+        <v>47341</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78472</v>
+        <v>77308</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06678839833055862</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05043716851587427</v>
+        <v>0.0514960777629296</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08536010779292708</v>
+        <v>0.08409371558027302</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>324292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>313006</v>
+        <v>312185</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>332939</v>
+        <v>333353</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9250826570545863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8928859263739998</v>
+        <v>0.8905445983617956</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9497491343448398</v>
+        <v>0.9509287309430938</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>507</v>
@@ -1704,19 +1704,19 @@
         <v>533616</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>520955</v>
+        <v>520209</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>544841</v>
+        <v>544918</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.938221949182914</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9159619933222732</v>
+        <v>0.9146503274959372</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9579583452380175</v>
+        <v>0.9580947579654073</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>820</v>
@@ -1725,19 +1725,19 @@
         <v>857908</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>840835</v>
+        <v>841999</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>872940</v>
+        <v>871966</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9332116016694414</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.914639892207073</v>
+        <v>0.9159062844197269</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9495628314841259</v>
+        <v>0.9485039222370701</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>17543</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10895</v>
+        <v>11044</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26208</v>
+        <v>26808</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05901294575877992</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03664902897337474</v>
+        <v>0.03714997210284357</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08816032660493416</v>
+        <v>0.09017809515344993</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>100</v>
@@ -1850,19 +1850,19 @@
         <v>102505</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>85090</v>
+        <v>84241</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>122403</v>
+        <v>122088</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08221892055337238</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06825029995197662</v>
+        <v>0.06756960637915427</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09817936971338545</v>
+        <v>0.09792625228600907</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>119</v>
@@ -1871,19 +1871,19 @@
         <v>120048</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>101377</v>
+        <v>100490</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>142665</v>
+        <v>142061</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07775098682720372</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06565849163035627</v>
+        <v>0.06508405596682675</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09239917739925733</v>
+        <v>0.09200796275072994</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>279730</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>271065</v>
+        <v>270465</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286378</v>
+        <v>286229</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9409870542412201</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9118396733950668</v>
+        <v>0.9098219048465501</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9633509710266255</v>
+        <v>0.9628500278971565</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1136</v>
@@ -1921,19 +1921,19 @@
         <v>1144227</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1124329</v>
+        <v>1124644</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1161642</v>
+        <v>1162491</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9177810794466276</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9018206302866145</v>
+        <v>0.9020737477139911</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9317497000480234</v>
+        <v>0.9324303936208462</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1422</v>
@@ -1942,19 +1942,19 @@
         <v>1423957</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1401340</v>
+        <v>1401944</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1442628</v>
+        <v>1443515</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9222490131727963</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9076008226007427</v>
+        <v>0.9079920372492701</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9343415083696439</v>
+        <v>0.9349159440331732</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>343111</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>307814</v>
+        <v>305811</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>377553</v>
+        <v>380671</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1051267840143132</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09431203653506932</v>
+        <v>0.09369832266479726</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1156794945333578</v>
+        <v>0.116634922799941</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>309</v>
@@ -2067,19 +2067,19 @@
         <v>321673</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>286723</v>
+        <v>289993</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>355589</v>
+        <v>358741</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09527944767723444</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08492734959445311</v>
+        <v>0.08589599938362498</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1053255866878994</v>
+        <v>0.106259245138534</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>644</v>
@@ -2088,19 +2088,19 @@
         <v>664783</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>616689</v>
+        <v>615079</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>710862</v>
+        <v>712242</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1001198310647338</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09287651279177825</v>
+        <v>0.09263404707701783</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1070594739654449</v>
+        <v>0.1072673967659067</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2920671</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2886229</v>
+        <v>2883111</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2955968</v>
+        <v>2957971</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8948732159856868</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8843205054666423</v>
+        <v>0.8833650772000591</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9056879634649307</v>
+        <v>0.9063016773352028</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2985</v>
@@ -2138,19 +2138,19 @@
         <v>3054423</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3020507</v>
+        <v>3017355</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3089373</v>
+        <v>3086103</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9047205523227656</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8946744133121007</v>
+        <v>0.8937407548614661</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9150726504055471</v>
+        <v>0.9141040006163753</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5851</v>
@@ -2159,19 +2159,19 @@
         <v>5975095</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5929016</v>
+        <v>5927636</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6023189</v>
+        <v>6024799</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8998801689352662</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8929405260345548</v>
+        <v>0.8927326032340926</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9071234872082216</v>
+        <v>0.9073659529229819</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>100191</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80827</v>
+        <v>80795</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>119169</v>
+        <v>121716</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2291583529665094</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1848701223280562</v>
+        <v>0.184795861269773</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2725653692333257</v>
+        <v>0.2783914780943499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -2526,19 +2526,19 @@
         <v>67212</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53155</v>
+        <v>52584</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83474</v>
+        <v>84028</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2137430189304295</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1690387746451861</v>
+        <v>0.1672235341041956</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2654582625084289</v>
+        <v>0.2672189379458064</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>149</v>
@@ -2547,19 +2547,19 @@
         <v>167403</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>144026</v>
+        <v>144215</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192292</v>
+        <v>193912</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2227094466705451</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1916090744378289</v>
+        <v>0.1918612949063515</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2558216949194213</v>
+        <v>0.2579766872138072</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>337020</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>318042</v>
+        <v>315495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>356384</v>
+        <v>356416</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7708416470334907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7274346307666745</v>
+        <v>0.7216085219056499</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8151298776719442</v>
+        <v>0.8152041387302267</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>223</v>
@@ -2597,19 +2597,19 @@
         <v>247242</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>230980</v>
+        <v>230426</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>261299</v>
+        <v>261870</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7862569810695705</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.734541737491571</v>
+        <v>0.7327810620541937</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8309612253548139</v>
+        <v>0.8327764658958045</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>538</v>
@@ -2618,19 +2618,19 @@
         <v>584262</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>559373</v>
+        <v>557753</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>607639</v>
+        <v>607450</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7772905533294548</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7441783050805788</v>
+        <v>0.7420233127861929</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8083909255621711</v>
+        <v>0.8081387050936486</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>108479</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91339</v>
+        <v>91368</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>131289</v>
+        <v>130078</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2590260705641546</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2180979527251205</v>
+        <v>0.218167483059574</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3134899003601239</v>
+        <v>0.3106000597655254</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -2743,19 +2743,19 @@
         <v>56844</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43230</v>
+        <v>43673</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75791</v>
+        <v>74460</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1681725940101038</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1278956209419597</v>
+        <v>0.1292047189752694</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2242266428730521</v>
+        <v>0.220288767061236</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -2764,19 +2764,19 @@
         <v>165324</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>139897</v>
+        <v>141347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>190936</v>
+        <v>193930</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2184484324689056</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1848518010411927</v>
+        <v>0.1867677809759689</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2522912630781051</v>
+        <v>0.2562478498395162</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>310318</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>287508</v>
+        <v>288719</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>327458</v>
+        <v>327429</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7409739294358454</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6865100996398761</v>
+        <v>0.6893999402344746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7819020472748794</v>
+        <v>0.781832516940426</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>258</v>
@@ -2814,19 +2814,19 @@
         <v>281167</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>262220</v>
+        <v>263551</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>294781</v>
+        <v>294338</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8318274059898962</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7757733571269481</v>
+        <v>0.779711232938764</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8721043790580403</v>
+        <v>0.8707952810247307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>543</v>
@@ -2835,19 +2835,19 @@
         <v>591484</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>565872</v>
+        <v>562878</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>616911</v>
+        <v>615461</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7815515675310944</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7477087369218949</v>
+        <v>0.7437521501604836</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8151481989588073</v>
+        <v>0.8132322190240311</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>32229</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21967</v>
+        <v>21687</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45751</v>
+        <v>47088</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05120426642552339</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03490098024127237</v>
+        <v>0.03445543780508502</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07268800281908752</v>
+        <v>0.07481158057529948</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -2960,19 +2960,19 @@
         <v>19151</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11892</v>
+        <v>11779</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29448</v>
+        <v>29256</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07362235939718069</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04571408185689273</v>
+        <v>0.04528323427626776</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.113204901058565</v>
+        <v>0.1124683424815756</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -2981,19 +2981,19 @@
         <v>51380</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37542</v>
+        <v>38171</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67793</v>
+        <v>67482</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05775998948055811</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04220384841262782</v>
+        <v>0.04291027531520459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07621126165711654</v>
+        <v>0.07586115171576165</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>597186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>583664</v>
+        <v>582327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>607448</v>
+        <v>607728</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9487957335744767</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9273119971809125</v>
+        <v>0.9251884194247006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9650990197587277</v>
+        <v>0.9655445621949156</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>226</v>
@@ -3031,19 +3031,19 @@
         <v>240978</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>230681</v>
+        <v>230873</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>248237</v>
+        <v>248350</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9263776406028194</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.886795098941435</v>
+        <v>0.8875316575184244</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9542859181431074</v>
+        <v>0.9547167657237329</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>788</v>
@@ -3052,19 +3052,19 @@
         <v>838164</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>821751</v>
+        <v>822062</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>852002</v>
+        <v>851373</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9422400105194418</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9237887383428833</v>
+        <v>0.9241388482842384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9577961515873722</v>
+        <v>0.9570897246847954</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>44059</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32595</v>
+        <v>32207</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58305</v>
+        <v>59312</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03804671677583295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02814727644349154</v>
+        <v>0.02781152834348949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0503482198565688</v>
+        <v>0.05121775194833763</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -3177,19 +3177,19 @@
         <v>44155</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31832</v>
+        <v>32832</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58667</v>
+        <v>59855</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05759471544420659</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04152094254289912</v>
+        <v>0.04282430696466195</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07652365372223113</v>
+        <v>0.0780727022122033</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -3198,19 +3198,19 @@
         <v>88215</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69888</v>
+        <v>70738</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108111</v>
+        <v>108675</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04583324584059656</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03631127060237681</v>
+        <v>0.03675323249439896</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05617069750490908</v>
+        <v>0.05646371184387566</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1113969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1099723</v>
+        <v>1098716</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1125433</v>
+        <v>1125821</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9619532832241671</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9496517801434315</v>
+        <v>0.9487822480516623</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9718527235565088</v>
+        <v>0.9721884716565105</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>671</v>
@@ -3248,19 +3248,19 @@
         <v>722502</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>707990</v>
+        <v>706802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>734825</v>
+        <v>733825</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9424052845557934</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9234763462777689</v>
+        <v>0.9219272977877968</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9584790574571008</v>
+        <v>0.9571756930353381</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1710</v>
@@ -3269,19 +3269,19 @@
         <v>1836470</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1816574</v>
+        <v>1816010</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1854797</v>
+        <v>1853947</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9541667541594034</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9438293024950916</v>
+        <v>0.9435362881561241</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9636887293976232</v>
+        <v>0.963246767505601</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>11409</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5985</v>
+        <v>6041</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18834</v>
+        <v>19695</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02234519143569652</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01172103342183776</v>
+        <v>0.01183096646236402</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03688725310439069</v>
+        <v>0.03857217767668893</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -3394,19 +3394,19 @@
         <v>20726</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12540</v>
+        <v>12327</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31782</v>
+        <v>30318</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02721713388351665</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01646767857458253</v>
+        <v>0.01618743783771897</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04173443310001269</v>
+        <v>0.03981267461506262</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -3415,19 +3415,19 @@
         <v>32136</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22897</v>
+        <v>21635</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45601</v>
+        <v>43241</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02526165826734992</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0179990563840027</v>
+        <v>0.01700728265210812</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03584664511679917</v>
+        <v>0.03399116656181214</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>499187</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>491762</v>
+        <v>490901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>504611</v>
+        <v>504555</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9776548085643035</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.963112746895609</v>
+        <v>0.961427822323311</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9882789665781622</v>
+        <v>0.9881690335376359</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>683</v>
@@ -3465,19 +3465,19 @@
         <v>740796</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>729740</v>
+        <v>731204</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>748982</v>
+        <v>749195</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9727828661164833</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9582655668999875</v>
+        <v>0.9601873253849371</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9835323214254176</v>
+        <v>0.983812562162281</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1158</v>
@@ -3486,19 +3486,19 @@
         <v>1239982</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1226517</v>
+        <v>1228877</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1249221</v>
+        <v>1250483</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9747383417326501</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9641533548832011</v>
+        <v>0.9660088334381882</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9820009436159975</v>
+        <v>0.982992717347892</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>19320</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11629</v>
+        <v>11398</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29172</v>
+        <v>29870</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07239187581208742</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04357489034813378</v>
+        <v>0.04270833530883417</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1093072549510556</v>
+        <v>0.1119222847474519</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -3611,19 +3611,19 @@
         <v>63890</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49404</v>
+        <v>49990</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82689</v>
+        <v>83343</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05759234681093052</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0445342917373614</v>
+        <v>0.04506203660986225</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07453840623575217</v>
+        <v>0.07512790265382842</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -3632,19 +3632,19 @@
         <v>83210</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66745</v>
+        <v>66392</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>105471</v>
+        <v>102262</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06046230145135881</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0484983885138192</v>
+        <v>0.04824185833210611</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07663762049590309</v>
+        <v>0.07430554493756024</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>247562</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>237710</v>
+        <v>237012</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>255253</v>
+        <v>255484</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9276081241879126</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8906927450489442</v>
+        <v>0.8880777152525481</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9564251096518658</v>
+        <v>0.9572916646911658</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>987</v>
@@ -3682,19 +3682,19 @@
         <v>1045461</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1026662</v>
+        <v>1026008</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1059947</v>
+        <v>1059361</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9424076531890695</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9254615937642479</v>
+        <v>0.9248720973461717</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9554657082626387</v>
+        <v>0.9549379633901377</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1234</v>
@@ -3703,19 +3703,19 @@
         <v>1293023</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1270762</v>
+        <v>1273971</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1309488</v>
+        <v>1309841</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9395376985486412</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9233623795040976</v>
+        <v>0.9256944550624399</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9515016114861811</v>
+        <v>0.9517581416678939</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>315687</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>280131</v>
+        <v>280809</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>352963</v>
+        <v>350583</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09228112357686681</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08188750893104339</v>
+        <v>0.08208571471116625</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1031775011601799</v>
+        <v>0.1024818078145363</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>242</v>
@@ -3828,19 +3828,19 @@
         <v>271980</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>241928</v>
+        <v>238406</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>307695</v>
+        <v>307260</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07661136209617228</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06814643797515559</v>
+        <v>0.06715417949623954</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08667172428804111</v>
+        <v>0.086549130104061</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>523</v>
@@ -3849,19 +3849,19 @@
         <v>587667</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>538174</v>
+        <v>541190</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>638813</v>
+        <v>637847</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08430103666448915</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07720119430137173</v>
+        <v>0.07763393826675928</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09163800581441375</v>
+        <v>0.09149943412896441</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3105242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3067966</v>
+        <v>3070346</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3140798</v>
+        <v>3140120</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9077188764231332</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8968224988398201</v>
+        <v>0.8975181921854638</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9181124910689568</v>
+        <v>0.9179142852888339</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3048</v>
@@ -3899,19 +3899,19 @@
         <v>3278145</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3242430</v>
+        <v>3242865</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3308197</v>
+        <v>3311719</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9233886379038277</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9133282757119588</v>
+        <v>0.9134508698959389</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9318535620248444</v>
+        <v>0.9328458205037604</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5971</v>
@@ -3920,19 +3920,19 @@
         <v>6383387</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6332241</v>
+        <v>6333207</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6432880</v>
+        <v>6429864</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9156989633355108</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9083619941855863</v>
+        <v>0.9085005658710356</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9227988056986282</v>
+        <v>0.9223660617332405</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>106881</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91015</v>
+        <v>88881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126080</v>
+        <v>125878</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2490873735402187</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2121111645419988</v>
+        <v>0.207137196706793</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2938308982221117</v>
+        <v>0.2933581203734109</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -4287,19 +4287,19 @@
         <v>93931</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77579</v>
+        <v>76437</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110794</v>
+        <v>111504</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2706506303055203</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2235355563638704</v>
+        <v>0.2202435144006059</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3192408368861154</v>
+        <v>0.3212871023483374</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>184</v>
@@ -4308,19 +4308,19 @@
         <v>200812</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>177679</v>
+        <v>177056</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>228534</v>
+        <v>229303</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2587294063790432</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2289240170243578</v>
+        <v>0.2281211618076422</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2944465135629093</v>
+        <v>0.295437255166332</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>322211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>303012</v>
+        <v>303214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>338077</v>
+        <v>340211</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7509126264597813</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7061691017778883</v>
+        <v>0.7066418796265892</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7878888354580013</v>
+        <v>0.7928628032932071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>245</v>
@@ -4358,19 +4358,19 @@
         <v>253124</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>236261</v>
+        <v>235551</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269476</v>
+        <v>270618</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7293493696944796</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6807591631138846</v>
+        <v>0.6787128976516622</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7764644436361295</v>
+        <v>0.7797564855993937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>544</v>
@@ -4379,19 +4379,19 @@
         <v>575335</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>547613</v>
+        <v>546844</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>598468</v>
+        <v>599091</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7412705936209568</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7055534864370908</v>
+        <v>0.7045627448336685</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7710759829756422</v>
+        <v>0.7718788381923578</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>79853</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64444</v>
+        <v>63564</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97120</v>
+        <v>96462</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2122263795876939</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1712744557389289</v>
+        <v>0.1689345784257031</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2581184325360226</v>
+        <v>0.2563677314870706</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -4504,19 +4504,19 @@
         <v>61540</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46684</v>
+        <v>47681</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76885</v>
+        <v>79518</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.165309736589349</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1254038760189331</v>
+        <v>0.1280818107282282</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2065275857816244</v>
+        <v>0.2136000895077774</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>131</v>
@@ -4525,19 +4525,19 @@
         <v>141393</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>121135</v>
+        <v>120656</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>166055</v>
+        <v>166791</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1888931064887427</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1618295510959788</v>
+        <v>0.1611891960768198</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2218393026739912</v>
+        <v>0.2228233035914298</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>296410</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>279143</v>
+        <v>279801</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>311819</v>
+        <v>312699</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7877736204123061</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7418815674639776</v>
+        <v>0.7436322685129293</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8287255442610711</v>
+        <v>0.8310654215742967</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>295</v>
@@ -4575,19 +4575,19 @@
         <v>310733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>295388</v>
+        <v>292755</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>325589</v>
+        <v>324592</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.834690263410651</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7934724142183754</v>
+        <v>0.7863999104922226</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.874596123981067</v>
+        <v>0.8719181892717718</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>574</v>
@@ -4596,19 +4596,19 @@
         <v>607144</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>582482</v>
+        <v>581746</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>627402</v>
+        <v>627881</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8111068935112573</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7781606973260092</v>
+        <v>0.7771766964085705</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8381704489040211</v>
+        <v>0.8388108039231804</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>18104</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10809</v>
+        <v>9864</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29824</v>
+        <v>29052</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03468849004139</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02071010194373914</v>
+        <v>0.01890011881031387</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0571440995353957</v>
+        <v>0.05566394885025477</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -4721,19 +4721,19 @@
         <v>12018</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6087</v>
+        <v>6163</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19669</v>
+        <v>19805</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07234293995735189</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03664179874901254</v>
+        <v>0.03710098658585302</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1183972255197211</v>
+        <v>0.1192169844161843</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -4742,19 +4742,19 @@
         <v>30122</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20894</v>
+        <v>20762</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43123</v>
+        <v>42721</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04377995954155772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03036750796921584</v>
+        <v>0.0301751413592572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06267554377056819</v>
+        <v>0.06209176041324451</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>503810</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>492090</v>
+        <v>492862</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>511105</v>
+        <v>512050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.96531150995861</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9428559004646045</v>
+        <v>0.9443360511497454</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9792898980562609</v>
+        <v>0.9810998811896861</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>141</v>
@@ -4792,19 +4792,19 @@
         <v>154105</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146454</v>
+        <v>146318</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>160036</v>
+        <v>159960</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9276570600426481</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8816027744802787</v>
+        <v>0.8807830155838157</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.963358201250987</v>
+        <v>0.9628990134141474</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>627</v>
@@ -4813,19 +4813,19 @@
         <v>657914</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644913</v>
+        <v>645315</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>667142</v>
+        <v>667274</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9562200404584423</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9373244562294326</v>
+        <v>0.9379082395867555</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9696324920307845</v>
+        <v>0.9698248586407429</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>38606</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26972</v>
+        <v>26632</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52359</v>
+        <v>52231</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03360846821773254</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02348018970036062</v>
+        <v>0.02318447706464997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04558103649976922</v>
+        <v>0.04546966071716511</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -4938,19 +4938,19 @@
         <v>34582</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23296</v>
+        <v>23311</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47134</v>
+        <v>47508</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04205427866385297</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0283298234281648</v>
+        <v>0.02834841300187272</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05731846463936057</v>
+        <v>0.05777281820621068</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -4959,19 +4959,19 @@
         <v>73188</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56889</v>
+        <v>58261</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93619</v>
+        <v>94030</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03713210021972459</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02886280991161893</v>
+        <v>0.02955864867701233</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0474976174935938</v>
+        <v>0.04770600998304138</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1110098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1096345</v>
+        <v>1096473</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1121732</v>
+        <v>1122072</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9663915317822674</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9544189635002307</v>
+        <v>0.9545303392828349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9765198102996394</v>
+        <v>0.97681552293535</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>763</v>
@@ -5009,19 +5009,19 @@
         <v>787739</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>775187</v>
+        <v>774813</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>799025</v>
+        <v>799010</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9579457213361471</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9426815353606394</v>
+        <v>0.9422271817937893</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9716701765718352</v>
+        <v>0.9716515869981273</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1830</v>
@@ -5030,19 +5030,19 @@
         <v>1897837</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1877406</v>
+        <v>1876995</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1914136</v>
+        <v>1912764</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9628678997802754</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.952502382506406</v>
+        <v>0.9522939900169585</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9711371900883808</v>
+        <v>0.9704413513229875</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>10370</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5157</v>
+        <v>5164</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18672</v>
+        <v>18429</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01673870510547415</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008323963128660856</v>
+        <v>0.008335462837569092</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03013780504279386</v>
+        <v>0.02974712861746832</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -5155,19 +5155,19 @@
         <v>17032</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9919</v>
+        <v>10077</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26901</v>
+        <v>27469</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02310111066812539</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01345435642172916</v>
+        <v>0.01366815889487753</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03648720721262983</v>
+        <v>0.03725844351831418</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -5176,19 +5176,19 @@
         <v>27402</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19167</v>
+        <v>17076</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40193</v>
+        <v>39974</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02019593600698414</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01412657886515289</v>
+        <v>0.01258530686912354</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0296232016054107</v>
+        <v>0.02946187286068878</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>609168</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>600866</v>
+        <v>601109</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>614381</v>
+        <v>614374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9832612948945259</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.969862194957206</v>
+        <v>0.9702528713825321</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9916760368713391</v>
+        <v>0.991664537162431</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>683</v>
@@ -5226,19 +5226,19 @@
         <v>720233</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>710364</v>
+        <v>709796</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>727346</v>
+        <v>727188</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9768988893318746</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9635127927873702</v>
+        <v>0.962741556481686</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9865456435782709</v>
+        <v>0.9863318411051225</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1269</v>
@@ -5247,19 +5247,19 @@
         <v>1329401</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1316610</v>
+        <v>1316829</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1337636</v>
+        <v>1339727</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9798040639930159</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9703767983945893</v>
+        <v>0.9705381271393112</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9858734211348471</v>
+        <v>0.9874146931308765</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>22204</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13959</v>
+        <v>14327</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32761</v>
+        <v>32872</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07732627075321567</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04861449970710621</v>
+        <v>0.04989567720088026</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1140930005192711</v>
+        <v>0.1144781170540815</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -5372,19 +5372,19 @@
         <v>55063</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39749</v>
+        <v>39196</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70024</v>
+        <v>71203</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05094851269058842</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0367793719410625</v>
+        <v>0.03626741044413401</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06479150823665084</v>
+        <v>0.06588313743503124</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>70</v>
@@ -5393,19 +5393,19 @@
         <v>77267</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59972</v>
+        <v>60570</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>97322</v>
+        <v>96655</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05648565076379861</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04384239675238524</v>
+        <v>0.0442795964519904</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07114684965195198</v>
+        <v>0.07065972168822252</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>264941</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254384</v>
+        <v>254273</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>273186</v>
+        <v>272818</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9226737292467844</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.885906999480729</v>
+        <v>0.8855218829459187</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9513855002928938</v>
+        <v>0.9501043227991197</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>942</v>
@@ -5443,19 +5443,19 @@
         <v>1025691</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1010730</v>
+        <v>1009551</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1041005</v>
+        <v>1041558</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9490514873094116</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9352084917633491</v>
+        <v>0.9341168625649687</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9632206280589375</v>
+        <v>0.9637325895558659</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1193</v>
@@ -5464,19 +5464,19 @@
         <v>1290632</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1270577</v>
+        <v>1271244</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1307927</v>
+        <v>1307329</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9435143492362014</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9288531503480478</v>
+        <v>0.9293402783117777</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9561576032476142</v>
+        <v>0.95572040354801</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>276019</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>246624</v>
+        <v>240833</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>311659</v>
+        <v>310177</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08159835835315969</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07290830102660592</v>
+        <v>0.07119627780055812</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09213438296844896</v>
+        <v>0.09169617414695209</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>252</v>
@@ -5589,19 +5589,19 @@
         <v>274165</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>238509</v>
+        <v>243310</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>308190</v>
+        <v>308601</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07775997570446432</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06764700041585969</v>
+        <v>0.06900854496285988</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08741025081044214</v>
+        <v>0.08752679614036593</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>505</v>
@@ -5610,19 +5610,19 @@
         <v>550185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>505589</v>
+        <v>503450</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>605148</v>
+        <v>593836</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07963940358729144</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07318421652852498</v>
+        <v>0.07287455530014511</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08759538747384343</v>
+        <v>0.08595793583440225</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3106637</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3070997</v>
+        <v>3072479</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3136032</v>
+        <v>3141823</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9184016416468403</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.907865617031551</v>
+        <v>0.908303825853048</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9270916989733941</v>
+        <v>0.9288037221994421</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3069</v>
@@ -5660,19 +5660,19 @@
         <v>3251626</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3217601</v>
+        <v>3217190</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3287282</v>
+        <v>3282481</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9222400242955356</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9125897491895582</v>
+        <v>0.9124732038596342</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9323529995841406</v>
+        <v>0.9309914550371403</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6037</v>
@@ -5681,19 +5681,19 @@
         <v>6358262</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6303299</v>
+        <v>6314611</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6402858</v>
+        <v>6404997</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9203605964127085</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9124046125261566</v>
+        <v>0.9140420641655979</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9268157834714751</v>
+        <v>0.9271254446998549</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>163450</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>141223</v>
+        <v>142633</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184424</v>
+        <v>184657</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2968483809202845</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2564807881829506</v>
+        <v>0.2590417755436013</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3349394267423186</v>
+        <v>0.3353632527459476</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>255</v>
@@ -6048,19 +6048,19 @@
         <v>174009</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>157410</v>
+        <v>155540</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192999</v>
+        <v>192405</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3562751765819469</v>
+        <v>0.3562751765819468</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3222900550763315</v>
+        <v>0.3184603087008377</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3951564330434768</v>
+        <v>0.3939408324308236</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>430</v>
@@ -6069,19 +6069,19 @@
         <v>337459</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>309736</v>
+        <v>310518</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>366314</v>
+        <v>368985</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3247828174604637</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2981011815335105</v>
+        <v>0.2988538910383014</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3525541389591557</v>
+        <v>0.3551246806231033</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>387168</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>366194</v>
+        <v>365961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>409395</v>
+        <v>407985</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7031516190797155</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6650605732576815</v>
+        <v>0.6646367472540524</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7435192118170494</v>
+        <v>0.7409582244563987</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>431</v>
@@ -6119,19 +6119,19 @@
         <v>314402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295412</v>
+        <v>296006</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>331001</v>
+        <v>332871</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6437248234180533</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6048435669565233</v>
+        <v>0.6060591675691764</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6777099449236685</v>
+        <v>0.6815396912991625</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>810</v>
@@ -6140,19 +6140,19 @@
         <v>701570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>672715</v>
+        <v>670044</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>729293</v>
+        <v>728511</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6752171825395364</v>
+        <v>0.6752171825395363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6474458610408443</v>
+        <v>0.6448753193768969</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7018988184664895</v>
+        <v>0.7011461089616986</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>149207</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>127658</v>
+        <v>126052</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>170372</v>
+        <v>171771</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3087818731061656</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2641861970386271</v>
+        <v>0.2608624944830421</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3525825704448172</v>
+        <v>0.3554781656297036</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>153</v>
@@ -6265,19 +6265,19 @@
         <v>107558</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93351</v>
+        <v>92943</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124305</v>
+        <v>122501</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2541886553290149</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2206130860599776</v>
+        <v>0.2196496995586135</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2937662776037284</v>
+        <v>0.2895036006600468</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>294</v>
@@ -6286,19 +6286,19 @@
         <v>256765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>231254</v>
+        <v>229738</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>283836</v>
+        <v>282975</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2832943654967197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2551476827279348</v>
+        <v>0.2534750198661078</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3131619297367531</v>
+        <v>0.3122117654876735</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>334005</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>312840</v>
+        <v>311441</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>355554</v>
+        <v>357160</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6912181268938346</v>
+        <v>0.6912181268938344</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.647417429555183</v>
+        <v>0.6445218343702963</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7358138029613728</v>
+        <v>0.7391375055169577</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>437</v>
@@ -6336,19 +6336,19 @@
         <v>315585</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>298838</v>
+        <v>300642</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>329792</v>
+        <v>330200</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7458113446709851</v>
+        <v>0.745811344670985</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7062337223962716</v>
+        <v>0.7104963993399531</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7793869139400224</v>
+        <v>0.7803503004413864</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>777</v>
@@ -6357,19 +6357,19 @@
         <v>649590</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>622519</v>
+        <v>623380</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>675101</v>
+        <v>676617</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7167056345032804</v>
+        <v>0.7167056345032802</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6868380702632464</v>
+        <v>0.6877882345123263</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.744852317272065</v>
+        <v>0.7465249801338922</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>35926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24100</v>
+        <v>24826</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51317</v>
+        <v>49988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07617610547334491</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05110137873159384</v>
+        <v>0.05263970708890248</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.108811659746429</v>
+        <v>0.1059944246294535</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -6482,19 +6482,19 @@
         <v>21390</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15035</v>
+        <v>15080</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29142</v>
+        <v>29060</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1140832297483928</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08018998058191056</v>
+        <v>0.08042992032799516</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.155426010087668</v>
+        <v>0.1549899572721526</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -6503,19 +6503,19 @@
         <v>57316</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43770</v>
+        <v>44067</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72870</v>
+        <v>71617</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08695957661692696</v>
+        <v>0.08695957661692698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06640769009185282</v>
+        <v>0.06685880517534884</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1105585025767643</v>
+        <v>0.108657659319055</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>435686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>420295</v>
+        <v>421624</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>447512</v>
+        <v>446786</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9238238945266551</v>
+        <v>0.923823894526655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.891188340253571</v>
+        <v>0.8940055753705467</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9488986212684062</v>
+        <v>0.9473602929110977</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>256</v>
@@ -6553,19 +6553,19 @@
         <v>166107</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>158355</v>
+        <v>158437</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>172462</v>
+        <v>172417</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8859167702516071</v>
+        <v>0.8859167702516072</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8445739899123322</v>
+        <v>0.8450100427278473</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9198100194180895</v>
+        <v>0.9195700796720049</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>711</v>
@@ -6574,19 +6574,19 @@
         <v>601793</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>586239</v>
+        <v>587492</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>615339</v>
+        <v>615042</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9130404233830731</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8894414974232359</v>
+        <v>0.8913423406809451</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9335923099081471</v>
+        <v>0.9331411948246512</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>67559</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50358</v>
+        <v>50921</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87194</v>
+        <v>88606</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05968913111720248</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04449228429091391</v>
+        <v>0.04498926787539127</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07703690402931024</v>
+        <v>0.07828431015549334</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>111</v>
@@ -6699,19 +6699,19 @@
         <v>81802</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67680</v>
+        <v>67749</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98608</v>
+        <v>99106</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09498441751369757</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07858743919384489</v>
+        <v>0.07866681550904417</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1144995390356565</v>
+        <v>0.1150773157627761</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>169</v>
@@ -6720,19 +6720,19 @@
         <v>149360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>125764</v>
+        <v>126840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173400</v>
+        <v>175546</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0749404492403999</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06310132021768336</v>
+        <v>0.0636410982311347</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08700211388191724</v>
+        <v>0.08807883696242956</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1064284</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1044649</v>
+        <v>1043237</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1081485</v>
+        <v>1080922</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9403108688827975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.92296309597069</v>
+        <v>0.9217156898445066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9555077157090861</v>
+        <v>0.9550107321246087</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1119</v>
@@ -6770,19 +6770,19 @@
         <v>779409</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>762603</v>
+        <v>762105</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>793531</v>
+        <v>793462</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9050155824863024</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8855004609643434</v>
+        <v>0.8849226842372234</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9214125608061551</v>
+        <v>0.9213331844909556</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2179</v>
@@ -6791,19 +6791,19 @@
         <v>1843694</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1819654</v>
+        <v>1817508</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1867290</v>
+        <v>1866214</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9250595507596</v>
+        <v>0.9250595507596002</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9129978861180831</v>
+        <v>0.9119211630375704</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.936898679782317</v>
+        <v>0.9363589017688653</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>20237</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11968</v>
+        <v>11733</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31855</v>
+        <v>31887</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03563054530080281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02107235477487086</v>
+        <v>0.02065882177047331</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05608582744264776</v>
+        <v>0.05614331551309653</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -6916,19 +6916,19 @@
         <v>33015</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24313</v>
+        <v>24492</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43098</v>
+        <v>43561</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03977056160026272</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02928871005651248</v>
+        <v>0.02950379129334476</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05191780862895414</v>
+        <v>0.05247472276603307</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -6937,19 +6937,19 @@
         <v>53251</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41982</v>
+        <v>40935</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68692</v>
+        <v>70121</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03808871204598083</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03002806995601246</v>
+        <v>0.0292793228073547</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04913271778488736</v>
+        <v>0.05015463264805802</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>547727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>536109</v>
+        <v>536077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>555996</v>
+        <v>556231</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9643694546991972</v>
+        <v>0.9643694546991971</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9439141725573521</v>
+        <v>0.9438566844869035</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.978927645225129</v>
+        <v>0.9793411782295266</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1242</v>
@@ -6987,19 +6987,19 @@
         <v>797112</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>787029</v>
+        <v>786566</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>805814</v>
+        <v>805635</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9602294383997373</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9480821913710458</v>
+        <v>0.947525277233967</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9707112899434875</v>
+        <v>0.9704962087066553</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1772</v>
@@ -7008,19 +7008,19 @@
         <v>1344840</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1329399</v>
+        <v>1327970</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1356109</v>
+        <v>1357156</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9619112879540193</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9508672822151124</v>
+        <v>0.949845367351942</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9699719300439874</v>
+        <v>0.9707206771926453</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>27768</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13140</v>
+        <v>14900</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47831</v>
+        <v>47287</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1170537938340973</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05538827606335676</v>
+        <v>0.06280798433639795</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2016256785614106</v>
+        <v>0.1993318492480288</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -7133,19 +7133,19 @@
         <v>57654</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44423</v>
+        <v>45535</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73078</v>
+        <v>73937</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06828788972107903</v>
+        <v>0.06828788972107906</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05261657776320663</v>
+        <v>0.05393314595123494</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0865565852877751</v>
+        <v>0.08757372089813953</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>88</v>
@@ -7154,19 +7154,19 @@
         <v>85423</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66439</v>
+        <v>64497</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>112667</v>
+        <v>111899</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07898463698519698</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06143161374855506</v>
+        <v>0.05963623595579084</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1041755883353334</v>
+        <v>0.1034653921433385</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>209460</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>189397</v>
+        <v>189941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224088</v>
+        <v>222328</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8829462061659026</v>
+        <v>0.8829462061659025</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.79837432143859</v>
+        <v>0.8006681507519715</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9446117239366434</v>
+        <v>0.9371920156636028</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1081</v>
@@ -7204,19 +7204,19 @@
         <v>786627</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>771203</v>
+        <v>770344</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>799858</v>
+        <v>798746</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.931712110278921</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9134434147122247</v>
+        <v>0.9124262791018602</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9473834222367929</v>
+        <v>0.9460668540487652</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1183</v>
@@ -7225,19 +7225,19 @@
         <v>996086</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>968842</v>
+        <v>969610</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1015070</v>
+        <v>1017012</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9210153630148031</v>
+        <v>0.9210153630148032</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8958244116646666</v>
+        <v>0.8965346078566611</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.938568386251445</v>
+        <v>0.9403637640442088</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>464147</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>424317</v>
+        <v>424845</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>511698</v>
+        <v>510706</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1348293307601009</v>
+        <v>0.134829330760101</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.123259318701533</v>
+        <v>0.1234126713144552</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1486425606372483</v>
+        <v>0.1483541861135068</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>677</v>
@@ -7350,19 +7350,19 @@
         <v>475427</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>438844</v>
+        <v>440875</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>511800</v>
+        <v>510515</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1308034627139383</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.120738269661086</v>
+        <v>0.1212970216341383</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1408106220654337</v>
+        <v>0.140456936164097</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1111</v>
@@ -7371,19 +7371,19 @@
         <v>939574</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>887964</v>
+        <v>883435</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1002230</v>
+        <v>997646</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1327617313765856</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1254692056466597</v>
+        <v>0.1248292773637044</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1416149433451331</v>
+        <v>0.1409672385564338</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2978329</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2930778</v>
+        <v>2931770</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3018159</v>
+        <v>3017631</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8651706692398992</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.851357439362752</v>
+        <v>0.8516458138864931</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8767406812984669</v>
+        <v>0.8765873286855446</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4566</v>
@@ -7421,19 +7421,19 @@
         <v>3159243</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3122870</v>
+        <v>3124155</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3195826</v>
+        <v>3193795</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8691965372860615</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8591893779345664</v>
+        <v>0.859543063835903</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8792617303389141</v>
+        <v>0.878702978365862</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7432</v>
@@ -7442,19 +7442,19 @@
         <v>6137572</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6074916</v>
+        <v>6079500</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6189182</v>
+        <v>6193711</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8672382686234142</v>
+        <v>0.8672382686234146</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8583850566548669</v>
+        <v>0.8590327614435662</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8745307943533401</v>
+        <v>0.8751707226362956</v>
       </c>
     </row>
     <row r="24">
